--- a/src/framework/utils/testdata/ExportExcel.xlsx
+++ b/src/framework/utils/testdata/ExportExcel.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11805" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11805" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -52,16 +52,51 @@
   </si>
   <si>
     <t>Description3</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Cortez</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Arce</t>
+  </si>
+  <si>
+    <t>carla@cortez.com</t>
+  </si>
+  <si>
+    <t>celeste@arce.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +491,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4902260</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4902267</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
